--- a/Risk Register.xlsx
+++ b/Risk Register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/BNTA/bnta_work/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB5CF31-A7AA-6A47-9483-F3C7E2490FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41400C00-3670-1F42-BAB4-4EA3C3800E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="25600" windowHeight="13980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Business Risk Register" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Scale!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Simple Business Risk Register'!$B$1:$H$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Simple Business Risk Register'!$B$1:$H$20</definedName>
     <definedName name="REASSESSMENT_DATE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t xml:space="preserve">Any articles, templates, or information provided by Smartsheet on the website are for reference only. While we strive to keep the information up to date and correct, we make no representations or warranties of any kind, express or implied, about the completeness, accuracy, reliability, suitability, or availability with respect to the website or the information, articles, templates, or related graphics contained on the website. Any reliance you place on such information is therefore strictly at your own risk. </t>
   </si>
@@ -105,18 +105,9 @@
     <t>What can be done to lower or eliminate the impact or probability?</t>
   </si>
   <si>
-    <t>External API, difficult to manage issues and minimise for users</t>
-  </si>
-  <si>
-    <t>Error handling to inform users API is down</t>
-  </si>
-  <si>
     <t>Capstone team</t>
   </si>
   <si>
-    <t>*Extension - Google Maps API may be down/buggy</t>
-  </si>
-  <si>
     <t>Errors/incomplete data updates could create bugs when viewing profiles/booked holiday</t>
   </si>
   <si>
@@ -154,6 +145,24 @@
   </si>
   <si>
     <t xml:space="preserve"> RISK REGISTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data will not be uniform or consistent for field type i.e. email format. Data held will not be accurate and future report will reflect this. </t>
+  </si>
+  <si>
+    <t>Users entering invalid email format</t>
+  </si>
+  <si>
+    <t>Users entering invalid password format</t>
+  </si>
+  <si>
+    <t>Users may setup simple passwords without using a range of characters i.e. capitals, numbers or special characters. Easily guessed passwords pose a security risk to personal data.</t>
+  </si>
+  <si>
+    <t>Form validation to ensure email entered is the correct format</t>
+  </si>
+  <si>
+    <t>Form validation to ensure a user creates a strong password, using a combination of chracters</t>
   </si>
 </sst>
 </file>
@@ -901,8 +910,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>241015</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>349664</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>924409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1264,11 +1273,11 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="133" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1297,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -1356,12 +1365,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
+    <row r="5" spans="2:10" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="36">
         <v>3</v>
@@ -1370,250 +1379,271 @@
         <v>2</v>
       </c>
       <c r="F5" s="37">
-        <f>IF(D5*E5=0,"",D5*E5)</f>
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="2:10" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="36">
+        <v>3</v>
+      </c>
+      <c r="E6" s="36">
+        <v>2</v>
+      </c>
+      <c r="F6" s="37">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="2:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="C7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="43">
+        <v>4</v>
+      </c>
+      <c r="E7" s="43">
+        <v>2</v>
+      </c>
+      <c r="F7" s="49">
+        <f t="shared" ref="F7:F20" si="0">IF(D7*E7=0,"",D7*E7)</f>
+        <v>8</v>
+      </c>
+      <c r="G7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="42" t="s">
+      <c r="H7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="43">
-        <v>4</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="36">
+        <v>5</v>
+      </c>
+      <c r="E8" s="36">
         <v>2</v>
       </c>
-      <c r="F6" s="49">
-        <f t="shared" ref="F6:F19" si="0">IF(D6*E6=0,"",D6*E6)</f>
-        <v>8</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="36">
-        <v>5</v>
-      </c>
-      <c r="E7" s="36">
-        <v>2</v>
-      </c>
-      <c r="F7" s="37">
+      <c r="F8" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="D9" s="36">
+        <v>2</v>
+      </c>
+      <c r="E9" s="36">
+        <v>2</v>
+      </c>
+      <c r="F9" s="37">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="2:10" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="43">
+        <v>4</v>
+      </c>
+      <c r="E10" s="43">
         <v>2</v>
       </c>
-      <c r="E8" s="36">
-        <v>2</v>
-      </c>
-      <c r="F8" s="37">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="2:10" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="43">
-        <v>4</v>
-      </c>
-      <c r="E9" s="43">
-        <v>2</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="35">
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="str">
+    <row r="11" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="J10" s="35">
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="49" t="str">
+    <row r="12" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37" t="str">
+      <c r="G12" s="42"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="49" t="str">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37" t="str">
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="49" t="str">
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="44"/>
-    </row>
-    <row r="16" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="str">
+      <c r="G16" s="42"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="49" t="str">
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="str">
+      <c r="G18" s="42"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="48" t="str">
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="47"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F5:F19">
+  <conditionalFormatting sqref="F5:F20">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>25</formula>
     </cfRule>
@@ -1631,8 +1661,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E19" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$J$5:$J$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$J$6:$J$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0" footer="0"/>
